--- a/public/assets/format/format_import_gaji.xlsx
+++ b/public/assets/format/format_import_gaji.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windy\victorygaji\public\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD798D6-82BB-4003-80DC-F913D20C842D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0DD706-1F31-4CF2-8DCA-170881DCEAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2F34CEF1-5BC8-4BA5-8D37-09E38C263F17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="jabatan" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>nik</t>
   </si>
@@ -115,6 +125,12 @@
   </si>
   <si>
     <t>total potongan bpjs</t>
+  </si>
+  <si>
+    <t>telepon</t>
+  </si>
+  <si>
+    <t>081330074432</t>
   </si>
 </sst>
 </file>
@@ -484,35 +500,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69CA9D3-5E31-49BC-81FA-2CA798E3FE6A}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,58 +549,61 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -602,21 +622,21 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>150000</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
@@ -639,19 +659,22 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>25000</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>135500</v>
       </c>
-      <c r="W2">
-        <f>H2+J2+L2+N2+P2-R2-S2-T2-U2-V2</f>
+      <c r="X2">
+        <f>I2+K2+M2+O2+Q2-S2-T2-U2-V2-W2</f>
         <v>4989500</v>
       </c>
     </row>
@@ -663,4 +686,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE773853-87E3-424E-AD68-6458BF72979B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/assets/format/format_import_gaji.xlsx
+++ b/public/assets/format/format_import_gaji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windy\victorygaji\public\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0DD706-1F31-4CF2-8DCA-170881DCEAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C9441-A095-4FCA-8936-570791501DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2F34CEF1-5BC8-4BA5-8D37-09E38C263F17}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>jumlah transfer</t>
   </si>
   <si>
-    <t>0106</t>
-  </si>
-  <si>
     <t>windykuro@gmail.com</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>081330074432</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -597,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X1" t="s">
         <v>21</v>
@@ -605,28 +605,28 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
       </c>
       <c r="I2">
         <v>5000000</v>

--- a/public/assets/format/format_import_gaji.xlsx
+++ b/public/assets/format/format_import_gaji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windy\victorygaji\public\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76C9441-A095-4FCA-8936-570791501DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB1DB8-ED2D-4B68-B533-71154D027994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{2F34CEF1-5BC8-4BA5-8D37-09E38C263F17}"/>
   </bookViews>
@@ -127,10 +127,10 @@
     <t>telepon</t>
   </si>
   <si>
-    <t>081330074432</t>
-  </si>
-  <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>6281330074432</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -623,7 +623,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
